--- a/uploads/sample_comments.xlsx
+++ b/uploads/sample_comments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>user_id</t>
   </si>
@@ -44,22 +44,46 @@
     <t>school_year</t>
   </si>
   <si>
-    <t>Yawa</t>
+    <t>NO COMMENT!!!!!!!</t>
   </si>
   <si>
     <t>2023-2024</t>
   </si>
   <si>
-    <t>Yawa pud</t>
+    <t>Para gyud nis among future :)</t>
   </si>
   <si>
     <t>Excellent work.</t>
   </si>
   <si>
-    <t>Satisfactory.</t>
-  </si>
-  <si>
-    <t>Needs more details.</t>
+    <t>talagsa ra present si maam</t>
+  </si>
+  <si>
+    <t>Nothing to say :)</t>
+  </si>
+  <si>
+    <t>I like the way you teach sir</t>
+  </si>
+  <si>
+    <t>^-^ Thank you for being considerate</t>
+  </si>
+  <si>
+    <t>A Brilliant Instructor.</t>
+  </si>
+  <si>
+    <t>Come to school ON TIME.</t>
+  </si>
+  <si>
+    <t>vno outputs were returned to us</t>
+  </si>
+  <si>
+    <t>a flexible one</t>
+  </si>
+  <si>
+    <t>SAPOTON</t>
+  </si>
+  <si>
+    <t>Dili unta ka mamagsak sir :-)</t>
   </si>
 </sst>
 </file>
@@ -72,7 +96,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +111,24 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -566,141 +608,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,17 +1092,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="47.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="29.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1079,7 +1125,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1096,7 +1142,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1113,7 +1159,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1122,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1130,16 +1176,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -1147,7 +1193,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1159,6 +1205,142 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>

--- a/uploads/sample_comments.xlsx
+++ b/uploads/sample_comments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>user_id</t>
   </si>
@@ -44,46 +44,16 @@
     <t>school_year</t>
   </si>
   <si>
-    <t>NO COMMENT!!!!!!!</t>
+    <t>Bayot ka sir</t>
   </si>
   <si>
     <t>2023-2024</t>
   </si>
   <si>
-    <t>Para gyud nis among future :)</t>
+    <t xml:space="preserve">taning mo sir </t>
   </si>
   <si>
-    <t>Excellent work.</t>
-  </si>
-  <si>
-    <t>talagsa ra present si maam</t>
-  </si>
-  <si>
-    <t>Nothing to say :)</t>
-  </si>
-  <si>
-    <t>I like the way you teach sir</t>
-  </si>
-  <si>
-    <t>^-^ Thank you for being considerate</t>
-  </si>
-  <si>
-    <t>A Brilliant Instructor.</t>
-  </si>
-  <si>
-    <t>Come to school ON TIME.</t>
-  </si>
-  <si>
-    <t>vno outputs were returned to us</t>
-  </si>
-  <si>
-    <t>a flexible one</t>
-  </si>
-  <si>
-    <t>SAPOTON</t>
-  </si>
-  <si>
-    <t>Dili unta ka mamagsak sir :-)</t>
+    <t>YAwa</t>
   </si>
 </sst>
 </file>
@@ -96,7 +66,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,24 +81,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -608,144 +560,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="47.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
@@ -1131,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1148,7 +1097,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1165,182 +1114,12 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
